--- a/data/trans_dic/P18_1_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P18_1_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha sentido deprimida en algún momento o más en la última semana</t>
+          <t>Población que se ha sentido deprimida en algún momento o más en la última semana (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>37,07%</t>
+          <t>60,61%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>19,79%</t>
+          <t>79,49%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>29,98%</t>
+          <t>73,66%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>28,43%</t>
+          <t>72,68%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>67,2%</t>
+          <t>61,35%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>45,16%</t>
+          <t>32,67%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>49,13%</t>
+          <t>52,73%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>50,31%</t>
+          <t>48,85%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>53,4%</t>
+          <t>47,24%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>33,47%</t>
+          <t>48,43%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>40,34%</t>
+          <t>45,46%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>39,9%</t>
+          <t>64,99%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>60,39%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>59,53%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>54,59%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>30,8; 44,36</t>
+          <t>51,22; 68,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,57; 24,5</t>
+          <t>72,54; 86,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,72; 36,25</t>
+          <t>66,16; 80,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>22,63; 34,51</t>
+          <t>64,57; 80,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>61,71; 71,76</t>
+          <t>41,76; 71,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>39,61; 50,71</t>
+          <t>26,8; 39,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>43,69; 55,65</t>
+          <t>45,77; 59,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>40,47; 56,46</t>
+          <t>42,14; 56,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>49,56; 57,36</t>
+          <t>40,4; 54,3</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>29,51; 36,94</t>
+          <t>41,07; 56,19</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>36,25; 44,99</t>
+          <t>40,07; 50,7</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>34,63; 44,34</t>
+          <t>59,7; 70,73</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>54,98; 65,57</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>53,85; 65,74</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>46,9; 61,13</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>34,38%</t>
+          <t>61,98%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>26,49%</t>
+          <t>71,27%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>32,64%</t>
+          <t>65,83%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>28,83%</t>
+          <t>69,69%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>58,56%</t>
+          <t>67,57%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>47,94%</t>
+          <t>38,01%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>51,56%</t>
+          <t>49,91%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>46,82%</t>
+          <t>50,12%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>47,36%</t>
+          <t>52,36%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>37,79%</t>
+          <t>57,33%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>42,28%</t>
+          <t>49,17%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>37,9%</t>
+          <t>59,69%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>57,73%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>60,86%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>62,33%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>27,84; 40,77</t>
+          <t>53,27; 70,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,04; 36,18</t>
+          <t>63,47; 79,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,42; 39,83</t>
+          <t>56,42; 74,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,44; 36,18</t>
+          <t>60,77; 77,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>52,4; 64,87</t>
+          <t>59,35; 75,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>41,68; 54,25</t>
+          <t>30,34; 46,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>44,98; 57,7</t>
+          <t>42,03; 57,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>40,57; 53,69</t>
+          <t>41,58; 57,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>43,06; 52,29</t>
+          <t>44,17; 60,62</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>32,92; 42,86</t>
+          <t>48,69; 67,5</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>37,48; 46,87</t>
+          <t>42,97; 55,14</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>33,31; 42,97</t>
+          <t>53,72; 66,19</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>51,94; 63,59</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>54,46; 66,83</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>55,42; 68,1</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>43,26%</t>
+          <t>64,88%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>21,47%</t>
+          <t>71,63%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>36,59%</t>
+          <t>67,36%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>44,39%</t>
+          <t>38,81%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>72,04%</t>
+          <t>40,9%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>31,8%</t>
+          <t>29,51%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>45,32%</t>
+          <t>67,56%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>57,49%</t>
+          <t>46,68%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>56,99%</t>
+          <t>39,2%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>26,39%</t>
+          <t>50,18%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>40,84%</t>
+          <t>47,06%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>50,53%</t>
+          <t>69,6%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>56,9%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>39,0%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>45,38%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>27,51; 57,98</t>
+          <t>41,44; 86,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,05; 35,26</t>
+          <t>50,02; 91,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>22,87; 51,84</t>
+          <t>45,52; 86,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>29,99; 64,13</t>
+          <t>15,02; 61,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>59,93; 82,58</t>
+          <t>15,63; 64,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,89; 44,04</t>
+          <t>14,99; 46,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>34,53; 59,03</t>
+          <t>49,56; 81,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>45,29; 70,4</t>
+          <t>30,8; 62,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>45,3; 66,15</t>
+          <t>23,99; 56,88</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>18,74; 35,03</t>
+          <t>31,83; 66,89</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>31,58; 50,59</t>
+          <t>32,22; 64,49</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>40,74; 62,3</t>
+          <t>56,02; 82,09</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>43,11; 70,79</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>25,4; 53,43</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>28,44; 58,63</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>36,78%</t>
+          <t>61,63%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22,68%</t>
+          <t>75,28%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>31,86%</t>
+          <t>69,74%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>30,56%</t>
+          <t>67,78%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>64,23%</t>
+          <t>61,47%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>44,98%</t>
+          <t>34,53%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>49,69%</t>
+          <t>53,02%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>49,68%</t>
+          <t>49,15%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>51,41%</t>
+          <t>48,51%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>34,44%</t>
+          <t>52,09%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>41,17%</t>
+          <t>47,12%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>40,31%</t>
+          <t>63,32%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>58,95%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>57,93%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>56,64%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,84 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>32,56; 41,44</t>
+          <t>55,23; 67,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,11; 27,55</t>
+          <t>70,11; 80,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,62; 36,59</t>
+          <t>64,46; 74,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,15; 35,94</t>
+          <t>60,27; 73,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>60,66; 67,86</t>
+          <t>49,8; 68,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>41,05; 49,05</t>
+          <t>29,99; 39,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>45,52; 54,23</t>
+          <t>48,08; 57,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>44,29; 53,75</t>
+          <t>44,25; 54,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>48,69; 54,56</t>
+          <t>43,63; 53,39</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>31,28; 37,31</t>
+          <t>46,84; 58,08</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>38,08; 44,42</t>
+          <t>43,44; 51,44</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>37,11; 43,66</t>
+          <t>59,44; 67,24</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>55,13; 63,02</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>53,73; 61,98</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>50,6; 60,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1359,1215 @@
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha sentido deprimida en algún momento o más en la última semana (tasa de respuesta: 99,91%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>229.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>211.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>209.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>212.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>221667</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>341882</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>269713</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>276788</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>315296</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>141557</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>268316</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>205713</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>192502</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>272988</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>363224</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>610198</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>475426</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>469289</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>588284</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>187330; 248969</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>311966; 370701</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>242234; 295843</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>245905; 305294</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>214623; 367278</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>116129; 171581</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>232893; 303540</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>177456; 236593</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>164616; 221256</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>231487; 316707</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>320153; 405080</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>560579; 664141</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>432795; 516203</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>424530; 518227</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>505340; 658659</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>188872</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>256146</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>209560</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>224820</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>278604</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>133086</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>212294</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>169609</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>175404</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>248372</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>321957</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>468440</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>379169</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>400224</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>526976</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>162317; 215208</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>228112; 285740</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>179612; 236195</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>196053; 250630</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>244705; 311660</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>106201; 161816</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>178789; 246457</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>140717; 193962</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>147971; 203090</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>210928; 292393</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>281353; 361065</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>421553; 519451</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>341112; 417616</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>358128; 439473</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>468583; 575772</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>52818</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>72900</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>53620</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>33220</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>48833</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>24377</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>68343</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>38072</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>32359</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>55882</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>77195</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>141243</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>91691</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>65579</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>104714</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>33732; 70460</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>50900; 93096</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>36237; 69226</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>12855; 52551</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>18661; 77481</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>12385; 38086</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>50135; 82210</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>25118; 50647</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>19808; 46957</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>35447; 74484</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>52845; 105780</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>113675; 166595</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>69467; 114088</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>42711; 89837</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>65614; 135298</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>192.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>231.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>213.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>213.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>198.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>213.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>336.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>444.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>412.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>413.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>421.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>463356</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>670928</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>532893</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>534827</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>642732</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>299019</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>548953</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>413393</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>400265</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>577242</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>762375</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1219882</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>946287</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>935093</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1219975</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>415264; 508226</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>624872; 718713</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>492526; 572794</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>475530; 578426</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>520722; 714942</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>259676; 338152</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>497791; 598375</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>372154; 459227</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>359938; 440477</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>519124; 643610</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>702777; 832124</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1145170; 1295448</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>884994; 1011585</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>867239; 1000469</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>1089733; 1312403</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
